--- a/Test/Present Value.xlsx
+++ b/Test/Present Value.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Simple cash flow" sheetId="1" r:id="rId1"/>
     <sheet name="PV Cost vs PV Bennefit" sheetId="2" r:id="rId2"/>
-    <sheet name="Payback Time" sheetId="3" r:id="rId3"/>
+    <sheet name="Incremental IRR" sheetId="4" r:id="rId3"/>
+    <sheet name="PI" sheetId="5" r:id="rId4"/>
+    <sheet name="Payback Time" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t xml:space="preserve">Cost of capital = </t>
   </si>
@@ -78,16 +80,89 @@
   </si>
   <si>
     <t xml:space="preserve">Time to payback = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRR = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPV = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revenue Per Year = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Growth Rate = </t>
+  </si>
+  <si>
+    <t>Incremental IRR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash Flow One = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash Flow Two = </t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incremental NPV = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incremental IRR = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required Return Rate = </t>
+  </si>
+  <si>
+    <t>With the incremental IRR &lt; than the cost of capital, you should take the top project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum Deviation = </t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Space Requirement (sq. ft.)</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>MB345</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>MC237</t>
+  </si>
+  <si>
+    <t>MY456</t>
+  </si>
+  <si>
+    <t>MG231</t>
+  </si>
+  <si>
+    <t>MT347</t>
+  </si>
+  <si>
+    <t>MF302</t>
+  </si>
+  <si>
+    <t>MG201</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,16 +199,41 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE3E9F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -150,11 +250,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -191,6 +309,44 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -206,6 +362,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>399849</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4924425" y="9525"/>
+          <a:ext cx="1609524" cy="561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -634,29 +833,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>9</v>
@@ -668,36 +869,48 @@
         <v>14</v>
       </c>
       <c r="J1" s="14">
-        <v>-5200000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-10.3</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="27">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="12">
-        <v>1000000</v>
+        <v>1.51</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="12">
-        <v>99000</v>
+        <v>0</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="15">
-        <f>B4</f>
-        <v>6216488.7549924944</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+        <f>B5</f>
+        <v>43.142857142857089</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="31">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="18">
-        <v>9.7299999999999998E-2</v>
+      <c r="B3" s="28">
+        <v>6.3E-2</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>7</v>
@@ -710,35 +923,389 @@
       </c>
       <c r="J3" s="17">
         <f>F4</f>
-        <v>-1017471.7368961973</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="13">
-        <f>PV(B3,B1,-B2)</f>
-        <v>6216488.7549924944</v>
+        <v>0</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="18">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="18">
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="14">
         <f>PV(F3,F1,F2)</f>
-        <v>-1017471.7368961973</v>
-      </c>
-      <c r="I4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="29"/>
+      <c r="J4" s="30"/>
+      <c r="L4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="26">
+        <f>(M1/M2)+M3</f>
+        <v>0.17460194174757279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="12">
+      <c r="B5" s="13">
+        <f>PV(B3-B4,B1,-B2)</f>
+        <v>43.142857142857089</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="9">
         <f>SUM(J1:J3)</f>
-        <v>-982.98190370295197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+        <v>32.842857142857085</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I6" s="22"/>
+      <c r="J6" s="23"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="601" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="25">
+        <v>0</v>
+      </c>
+      <c r="C2" s="25">
+        <v>1</v>
+      </c>
+      <c r="D2" s="25">
+        <v>2</v>
+      </c>
+      <c r="E2" s="25">
+        <v>3</v>
+      </c>
+      <c r="F2" s="25">
+        <v>4</v>
+      </c>
+      <c r="G2" s="25">
+        <v>5</v>
+      </c>
+      <c r="H2" s="25">
+        <v>6</v>
+      </c>
+      <c r="I2" s="25">
+        <v>6</v>
+      </c>
+      <c r="J2" s="25">
+        <v>7</v>
+      </c>
+      <c r="K2" s="25">
+        <v>8</v>
+      </c>
+      <c r="L2" s="25">
+        <v>9</v>
+      </c>
+      <c r="M2" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="12">
+        <v>-29</v>
+      </c>
+      <c r="C3" s="12">
+        <v>20</v>
+      </c>
+      <c r="D3" s="12">
+        <v>19</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="5">
+        <v>-78</v>
+      </c>
+      <c r="C4" s="5">
+        <v>40</v>
+      </c>
+      <c r="D4" s="5">
+        <v>51</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="9">
+        <f>B3-B4</f>
+        <v>49</v>
+      </c>
+      <c r="C6" s="9">
+        <f>C3-C4</f>
+        <v>-20</v>
+      </c>
+      <c r="D6" s="9">
+        <f>D3-D4</f>
+        <v>-32</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9">
+        <f>NPV($B$11-$B$12,$C$6:C6)+$B$6</f>
+        <v>30.132075471698116</v>
+      </c>
+      <c r="D7" s="9">
+        <f>NPV($B$11-$B$12,$C$6:D6)+$B$6</f>
+        <v>1.6521893912424446</v>
+      </c>
+      <c r="E7" s="9">
+        <f>NPV($B$11-$B$12,$C$6:E6)+$B$6</f>
+        <v>1.6521893912424446</v>
+      </c>
+      <c r="F7" s="9">
+        <f>NPV($B$11-$B$12,$C$6:F6)+$B$6</f>
+        <v>1.6521893912424446</v>
+      </c>
+      <c r="G7" s="9">
+        <f>NPV($B$11-$B$12,$C$6:G6)+$B$6</f>
+        <v>1.6521893912424446</v>
+      </c>
+      <c r="H7" s="9">
+        <f>NPV($B$11-$B$12,$C$6:H6)+$B$6</f>
+        <v>1.6521893912424446</v>
+      </c>
+      <c r="I7" s="9">
+        <f>NPV($B$11-$B$12,$C$6:I6)+$B$6</f>
+        <v>1.6521893912424446</v>
+      </c>
+      <c r="J7" s="9">
+        <f>NPV($B$11-$B$12,$C$6:J6)+$B$6</f>
+        <v>1.6521893912424446</v>
+      </c>
+      <c r="K7" s="9">
+        <f>NPV($B$11-$B$12,$C$6:K6)+$B$6</f>
+        <v>1.6521893912424446</v>
+      </c>
+      <c r="L7" s="9">
+        <f>NPV($B$11-$B$12,$C$6:L6)+$B$6</f>
+        <v>1.6521893912424446</v>
+      </c>
+      <c r="M7" s="9">
+        <f>NPV($B$11-$B$12,$C$6:M6)+$B$6</f>
+        <v>1.6521893912424446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="26">
+        <f>IRR($B$6:C6,$B$11)</f>
+        <v>-0.59183673469387754</v>
+      </c>
+      <c r="D8" s="26">
+        <f>IRR($B$6:D6,$B$11)</f>
+        <v>3.7574606394372934E-2</v>
+      </c>
+      <c r="E8" s="26">
+        <f>IRR($B$6:E6,$B$11)</f>
+        <v>3.7574606394372934E-2</v>
+      </c>
+      <c r="F8" s="26">
+        <f>IRR($B$6:F6,$B$11)</f>
+        <v>3.7574606394372934E-2</v>
+      </c>
+      <c r="G8" s="26">
+        <f>IRR($B$6:G6,$B$11)</f>
+        <v>3.7574606394372934E-2</v>
+      </c>
+      <c r="H8" s="26">
+        <f>IRR($B$6:H6,$B$11)</f>
+        <v>3.7574606394372934E-2</v>
+      </c>
+      <c r="I8" s="26">
+        <f>IRR($B$6:I6,$B$11)</f>
+        <v>3.7574606394372934E-2</v>
+      </c>
+      <c r="J8" s="26">
+        <f>IRR($B$6:J6,$B$11)</f>
+        <v>3.7574606394372934E-2</v>
+      </c>
+      <c r="K8" s="26">
+        <f>IRR($B$6:K6,$B$11)</f>
+        <v>3.7574606394372934E-2</v>
+      </c>
+      <c r="L8" s="26">
+        <f>IRR($B$6:L6,$B$11)</f>
+        <v>3.7574606394372934E-2</v>
+      </c>
+      <c r="M8" s="26">
+        <f>IRR($B$6:M6,$B$11)</f>
+        <v>3.7574606394372934E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="26">
+        <f>C8-$B$11</f>
+        <v>-0.6518367346938776</v>
+      </c>
+      <c r="D9" s="26">
+        <f t="shared" ref="D9:M9" si="0">D8-$B$11</f>
+        <v>-2.2425393605627064E-2</v>
+      </c>
+      <c r="E9" s="26">
+        <f t="shared" si="0"/>
+        <v>-2.2425393605627064E-2</v>
+      </c>
+      <c r="F9" s="26">
+        <f t="shared" si="0"/>
+        <v>-2.2425393605627064E-2</v>
+      </c>
+      <c r="G9" s="26">
+        <f t="shared" si="0"/>
+        <v>-2.2425393605627064E-2</v>
+      </c>
+      <c r="H9" s="26">
+        <f t="shared" si="0"/>
+        <v>-2.2425393605627064E-2</v>
+      </c>
+      <c r="I9" s="26">
+        <f t="shared" si="0"/>
+        <v>-2.2425393605627064E-2</v>
+      </c>
+      <c r="J9" s="26">
+        <f t="shared" si="0"/>
+        <v>-2.2425393605627064E-2</v>
+      </c>
+      <c r="K9" s="26">
+        <f t="shared" si="0"/>
+        <v>-2.2425393605627064E-2</v>
+      </c>
+      <c r="L9" s="26">
+        <f t="shared" si="0"/>
+        <v>-2.2425393605627064E-2</v>
+      </c>
+      <c r="M9" s="26">
+        <f t="shared" si="0"/>
+        <v>-2.2425393605627064E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="32">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -746,11 +1313,176 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="38"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="35">
+        <v>2500</v>
+      </c>
+      <c r="C2" s="34">
+        <v>200</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="39">
+        <f>B2/C2</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="35">
+        <v>4000</v>
+      </c>
+      <c r="C3" s="34">
+        <v>250</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="39">
+        <f t="shared" ref="E3:E8" si="0">B3/C3</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="35">
+        <v>3500</v>
+      </c>
+      <c r="C4" s="34">
+        <v>240</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="39">
+        <f t="shared" si="0"/>
+        <v>14.583333333333334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="35">
+        <v>1500</v>
+      </c>
+      <c r="C5" s="34">
+        <v>150</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="39">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="35">
+        <v>9000</v>
+      </c>
+      <c r="C6" s="34">
+        <v>450</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="39">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="35">
+        <v>2000</v>
+      </c>
+      <c r="C7" s="34">
+        <v>200</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="39">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="37">
+        <v>2500</v>
+      </c>
+      <c r="C8" s="36">
+        <v>150</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="39">
+        <f t="shared" si="0"/>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/Test/Present Value.xlsx
+++ b/Test/Present Value.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Simple cash flow" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t xml:space="preserve">Cost of capital = </t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>MG201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Future Value = </t>
   </si>
 </sst>
 </file>
@@ -272,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -298,7 +301,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="40" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -320,10 +322,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -341,12 +339,14 @@
     <xf numFmtId="6" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="40" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="40" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -833,10 +833,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,13 +868,13 @@
       <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="14">
+      <c r="J1" s="13">
         <v>-10.3</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="27">
+      <c r="M1" s="26">
         <v>1.51</v>
       </c>
     </row>
@@ -894,41 +894,41 @@
       <c r="I2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="14">
         <f>B5</f>
         <v>43.142857142857089</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="31">
+      <c r="M2" s="28">
         <v>10.3</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="27">
         <v>6.3E-2</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="17">
         <v>9.7299999999999998E-2</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="16">
         <f>F4</f>
         <v>0</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="18">
+      <c r="M3" s="17">
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
@@ -936,48 +936,77 @@
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="17">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="37">
         <f>PV(F3,F1,F2)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="30"/>
+      <c r="I4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="9">
+        <f>SUM(J1:J3)</f>
+        <v>32.842857142857085</v>
+      </c>
       <c r="L4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="26">
+      <c r="M4" s="25">
         <f>(M1/M2)+M3</f>
         <v>0.17460194174757279</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="14">
         <f>PV(B3-B4,B1,-B2)</f>
         <v>43.142857142857089</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="9">
-        <f>SUM(J1:J3)</f>
-        <v>32.842857142857085</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I6" s="22"/>
-      <c r="J6" s="23"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="19">
+        <v>11000</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="38">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9">
+        <f>PV(B10,B8,,-B9)</f>
+        <v>7817.4946314313356</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1010,40 +1039,40 @@
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="24">
         <v>0</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="24">
         <v>1</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="24">
         <v>2</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="24">
         <v>3</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="24">
         <v>4</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="24">
         <v>5</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2" s="24">
         <v>6</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="24">
         <v>6</v>
       </c>
-      <c r="J2" s="25">
+      <c r="J2" s="24">
         <v>7</v>
       </c>
-      <c r="K2" s="25">
+      <c r="K2" s="24">
         <v>8</v>
       </c>
-      <c r="L2" s="25">
+      <c r="L2" s="24">
         <v>9</v>
       </c>
-      <c r="M2" s="25">
+      <c r="M2" s="24">
         <v>10</v>
       </c>
     </row>
@@ -1189,47 +1218,47 @@
         <v>28</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="26">
+      <c r="C8" s="25">
         <f>IRR($B$6:C6,$B$11)</f>
         <v>-0.59183673469387754</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="25">
         <f>IRR($B$6:D6,$B$11)</f>
         <v>3.7574606394372934E-2</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="25">
         <f>IRR($B$6:E6,$B$11)</f>
         <v>3.7574606394372934E-2</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="25">
         <f>IRR($B$6:F6,$B$11)</f>
         <v>3.7574606394372934E-2</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="25">
         <f>IRR($B$6:G6,$B$11)</f>
         <v>3.7574606394372934E-2</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="25">
         <f>IRR($B$6:H6,$B$11)</f>
         <v>3.7574606394372934E-2</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="25">
         <f>IRR($B$6:I6,$B$11)</f>
         <v>3.7574606394372934E-2</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="25">
         <f>IRR($B$6:J6,$B$11)</f>
         <v>3.7574606394372934E-2</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="25">
         <f>IRR($B$6:K6,$B$11)</f>
         <v>3.7574606394372934E-2</v>
       </c>
-      <c r="L8" s="26">
+      <c r="L8" s="25">
         <f>IRR($B$6:L6,$B$11)</f>
         <v>3.7574606394372934E-2</v>
       </c>
-      <c r="M8" s="26">
+      <c r="M8" s="25">
         <f>IRR($B$6:M6,$B$11)</f>
         <v>3.7574606394372934E-2</v>
       </c>
@@ -1239,47 +1268,47 @@
         <v>31</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="26">
+      <c r="C9" s="25">
         <f>C8-$B$11</f>
         <v>-0.6518367346938776</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="25">
         <f t="shared" ref="D9:M9" si="0">D8-$B$11</f>
         <v>-2.2425393605627064E-2</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="25">
         <f t="shared" si="0"/>
         <v>-2.2425393605627064E-2</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="25">
         <f t="shared" si="0"/>
         <v>-2.2425393605627064E-2</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="25">
         <f t="shared" si="0"/>
         <v>-2.2425393605627064E-2</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="25">
         <f t="shared" si="0"/>
         <v>-2.2425393605627064E-2</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="25">
         <f t="shared" si="0"/>
         <v>-2.2425393605627064E-2</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="25">
         <f t="shared" si="0"/>
         <v>-2.2425393605627064E-2</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="25">
         <f t="shared" si="0"/>
         <v>-2.2425393605627064E-2</v>
       </c>
-      <c r="L9" s="26">
+      <c r="L9" s="25">
         <f t="shared" si="0"/>
         <v>-2.2425393605627064E-2</v>
       </c>
-      <c r="M9" s="26">
+      <c r="M9" s="25">
         <f t="shared" si="0"/>
         <v>-2.2425393605627064E-2</v>
       </c>
@@ -1291,7 +1320,7 @@
       <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="29">
         <v>0.06</v>
       </c>
     </row>
@@ -1299,7 +1328,7 @@
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="29">
         <v>0</v>
       </c>
     </row>
@@ -1317,7 +1346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -1328,142 +1357,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="38"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="32">
         <v>2500</v>
       </c>
-      <c r="C2" s="34">
+      <c r="C2" s="31">
         <v>200</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="39">
+      <c r="E2" s="35">
         <f>B2/C2</f>
         <v>12.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="32">
         <v>4000</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="31">
         <v>250</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="35">
         <f t="shared" ref="E3:E8" si="0">B3/C3</f>
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="32">
         <v>3500</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="31">
         <v>240</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="35">
         <f t="shared" si="0"/>
         <v>14.583333333333334</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="32">
         <v>1500</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="31">
         <v>150</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="35">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="32">
         <v>9000</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="31">
         <v>450</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="35">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="32">
         <v>2000</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="31">
         <v>200</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="35">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="34">
         <v>2500</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="33">
         <v>150</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="35">
         <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
@@ -1495,7 +1524,7 @@
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="20">
+      <c r="B1" s="19">
         <v>10000</v>
       </c>
     </row>
@@ -1503,7 +1532,7 @@
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="20">
         <v>1400</v>
       </c>
     </row>

--- a/Test/Present Value.xlsx
+++ b/Test/Present Value.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
   <si>
     <t xml:space="preserve">Cost of capital = </t>
   </si>
@@ -155,14 +155,36 @@
   </si>
   <si>
     <t xml:space="preserve">Future Value = </t>
+  </si>
+  <si>
+    <t>Rate =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FV = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Owed  = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baloon Payment = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difference = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rent Fee = </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
@@ -275,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -347,6 +369,12 @@
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,14 +701,14 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="3" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -726,13 +754,17 @@
         <v>2</v>
       </c>
       <c r="B2" s="5">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="C2" s="5">
-        <v>1400</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+        <v>110</v>
+      </c>
+      <c r="D2" s="5">
+        <v>110</v>
+      </c>
+      <c r="E2" s="5">
+        <v>110</v>
+      </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -746,15 +778,21 @@
         <v>3</v>
       </c>
       <c r="B3" s="8">
-        <f>B2</f>
-        <v>-10000</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="C3" s="9">
-        <f>NPV($B$8,$C$2) + $B$3</f>
-        <v>-8793.1034482758623</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+        <f>NPV($B$8,$C$2:C2) + $B$3</f>
+        <v>100.91743119266054</v>
+      </c>
+      <c r="D3" s="9">
+        <f>NPV($B$8,$C$2:D2) + $B$3</f>
+        <v>193.50223045198214</v>
+      </c>
+      <c r="E3" s="9">
+        <f>NPV($B$8,$C$2:E2) + $B$3</f>
+        <v>278.44241325869922</v>
+      </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -767,12 +805,12 @@
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="10" t="e">
         <f>IRR(B2:C2)</f>
-        <v>-0.86</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -785,12 +823,12 @@
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="10" t="e">
         <f>C4-$B$8</f>
-        <v>-1.02</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -817,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="1">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -833,23 +871,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -857,7 +895,7 @@
         <v>9</v>
       </c>
       <c r="B1">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>9</v>
@@ -883,7 +921,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="12">
-        <v>1.51</v>
+        <v>25850</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>11</v>
@@ -896,7 +934,7 @@
       </c>
       <c r="J2" s="14">
         <f>B5</f>
-        <v>43.142857142857089</v>
+        <v>291013.69941984548</v>
       </c>
       <c r="L2" s="23" t="s">
         <v>12</v>
@@ -910,7 +948,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="27">
-        <v>6.3E-2</v>
+        <v>0.08</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>7</v>
@@ -937,7 +975,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="17">
-        <v>2.8000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>10</v>
@@ -951,7 +989,7 @@
       </c>
       <c r="J4" s="9">
         <f>SUM(J1:J3)</f>
-        <v>32.842857142857085</v>
+        <v>291003.39941984549</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>19</v>
@@ -967,48 +1005,167 @@
       </c>
       <c r="B5" s="14">
         <f>PV(B3-B4,B1,-B2)</f>
-        <v>43.142857142857089</v>
+        <v>291013.69941984548</v>
       </c>
       <c r="I5" s="21"/>
       <c r="J5" s="22"/>
     </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="5">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="37">
+        <f>B5-B6</f>
+        <v>-8986.3005801545223</v>
+      </c>
+    </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="9">
+        <f>-B7*POWER(B3+1,B1)</f>
+        <v>90426.059440176599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <v>32</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="12">
+        <v>497000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="19">
+        <v>112000</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>278.44</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="12">
+        <v>6500</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" s="12">
+        <v>20900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="19">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="B12" s="38">
+        <v>0.08</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="38">
+        <v>0.09</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="L12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="38">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="M12" s="38">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="9">
-        <f>PV(B10,B8,,-B9)</f>
-        <v>7817.4946314313356</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+      <c r="B13" s="9">
+        <f>PV(B12,B10,,-B11)</f>
+        <v>51877.670665484635</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="40">
+        <f>FV(F12,F10,,-F11)</f>
+        <v>360.58787476000003</v>
+      </c>
+      <c r="I13" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="40">
+        <f>FV(J12,J10,-J11)</f>
+        <v>489442.39091846888</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="29">
+        <f>M12-(M11/M10)</f>
+        <v>1.7947686116700196E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
         <v>16</v>
       </c>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1021,7 +1178,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,15 +1238,17 @@
         <v>24</v>
       </c>
       <c r="B3" s="12">
-        <v>-29</v>
+        <v>0</v>
       </c>
       <c r="C3" s="12">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="D3" s="12">
-        <v>19</v>
-      </c>
-      <c r="E3" s="12"/>
+        <v>110</v>
+      </c>
+      <c r="E3" s="12">
+        <v>110</v>
+      </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -1104,7 +1263,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="5">
-        <v>-78</v>
+        <v>0</v>
       </c>
       <c r="C4" s="5">
         <v>40</v>
@@ -1143,15 +1302,15 @@
       </c>
       <c r="B6" s="9">
         <f>B3-B4</f>
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="C6" s="9">
         <f>C3-C4</f>
-        <v>-20</v>
+        <v>70</v>
       </c>
       <c r="D6" s="9">
         <f>D3-D4</f>
-        <v>-32</v>
+        <v>59</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -1170,47 +1329,47 @@
       <c r="B7" s="9"/>
       <c r="C7" s="9">
         <f>NPV($B$11-$B$12,$C$6:C6)+$B$6</f>
-        <v>30.132075471698116</v>
+        <v>64.220183486238525</v>
       </c>
       <c r="D7" s="9">
         <f>NPV($B$11-$B$12,$C$6:D6)+$B$6</f>
-        <v>1.6521893912424446</v>
+        <v>113.87930308896556</v>
       </c>
       <c r="E7" s="9">
         <f>NPV($B$11-$B$12,$C$6:E6)+$B$6</f>
-        <v>1.6521893912424446</v>
+        <v>113.87930308896556</v>
       </c>
       <c r="F7" s="9">
         <f>NPV($B$11-$B$12,$C$6:F6)+$B$6</f>
-        <v>1.6521893912424446</v>
+        <v>113.87930308896556</v>
       </c>
       <c r="G7" s="9">
         <f>NPV($B$11-$B$12,$C$6:G6)+$B$6</f>
-        <v>1.6521893912424446</v>
+        <v>113.87930308896556</v>
       </c>
       <c r="H7" s="9">
         <f>NPV($B$11-$B$12,$C$6:H6)+$B$6</f>
-        <v>1.6521893912424446</v>
+        <v>113.87930308896556</v>
       </c>
       <c r="I7" s="9">
         <f>NPV($B$11-$B$12,$C$6:I6)+$B$6</f>
-        <v>1.6521893912424446</v>
+        <v>113.87930308896556</v>
       </c>
       <c r="J7" s="9">
         <f>NPV($B$11-$B$12,$C$6:J6)+$B$6</f>
-        <v>1.6521893912424446</v>
+        <v>113.87930308896556</v>
       </c>
       <c r="K7" s="9">
         <f>NPV($B$11-$B$12,$C$6:K6)+$B$6</f>
-        <v>1.6521893912424446</v>
+        <v>113.87930308896556</v>
       </c>
       <c r="L7" s="9">
         <f>NPV($B$11-$B$12,$C$6:L6)+$B$6</f>
-        <v>1.6521893912424446</v>
+        <v>113.87930308896556</v>
       </c>
       <c r="M7" s="9">
         <f>NPV($B$11-$B$12,$C$6:M6)+$B$6</f>
-        <v>1.6521893912424446</v>
+        <v>113.87930308896556</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1218,49 +1377,49 @@
         <v>28</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="25">
+      <c r="C8" s="25" t="e">
         <f>IRR($B$6:C6,$B$11)</f>
-        <v>-0.59183673469387754</v>
-      </c>
-      <c r="D8" s="25">
+        <v>#NUM!</v>
+      </c>
+      <c r="D8" s="25" t="e">
         <f>IRR($B$6:D6,$B$11)</f>
-        <v>3.7574606394372934E-2</v>
-      </c>
-      <c r="E8" s="25">
+        <v>#NUM!</v>
+      </c>
+      <c r="E8" s="25" t="e">
         <f>IRR($B$6:E6,$B$11)</f>
-        <v>3.7574606394372934E-2</v>
-      </c>
-      <c r="F8" s="25">
+        <v>#NUM!</v>
+      </c>
+      <c r="F8" s="25" t="e">
         <f>IRR($B$6:F6,$B$11)</f>
-        <v>3.7574606394372934E-2</v>
-      </c>
-      <c r="G8" s="25">
+        <v>#NUM!</v>
+      </c>
+      <c r="G8" s="25" t="e">
         <f>IRR($B$6:G6,$B$11)</f>
-        <v>3.7574606394372934E-2</v>
-      </c>
-      <c r="H8" s="25">
+        <v>#NUM!</v>
+      </c>
+      <c r="H8" s="25" t="e">
         <f>IRR($B$6:H6,$B$11)</f>
-        <v>3.7574606394372934E-2</v>
-      </c>
-      <c r="I8" s="25">
+        <v>#NUM!</v>
+      </c>
+      <c r="I8" s="25" t="e">
         <f>IRR($B$6:I6,$B$11)</f>
-        <v>3.7574606394372934E-2</v>
-      </c>
-      <c r="J8" s="25">
+        <v>#NUM!</v>
+      </c>
+      <c r="J8" s="25" t="e">
         <f>IRR($B$6:J6,$B$11)</f>
-        <v>3.7574606394372934E-2</v>
-      </c>
-      <c r="K8" s="25">
+        <v>#NUM!</v>
+      </c>
+      <c r="K8" s="25" t="e">
         <f>IRR($B$6:K6,$B$11)</f>
-        <v>3.7574606394372934E-2</v>
-      </c>
-      <c r="L8" s="25">
+        <v>#NUM!</v>
+      </c>
+      <c r="L8" s="25" t="e">
         <f>IRR($B$6:L6,$B$11)</f>
-        <v>3.7574606394372934E-2</v>
-      </c>
-      <c r="M8" s="25">
+        <v>#NUM!</v>
+      </c>
+      <c r="M8" s="25" t="e">
         <f>IRR($B$6:M6,$B$11)</f>
-        <v>3.7574606394372934E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1268,49 +1427,49 @@
         <v>31</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="25">
+      <c r="C9" s="25" t="e">
         <f>C8-$B$11</f>
-        <v>-0.6518367346938776</v>
-      </c>
-      <c r="D9" s="25">
+        <v>#NUM!</v>
+      </c>
+      <c r="D9" s="25" t="e">
         <f t="shared" ref="D9:M9" si="0">D8-$B$11</f>
-        <v>-2.2425393605627064E-2</v>
-      </c>
-      <c r="E9" s="25">
+        <v>#NUM!</v>
+      </c>
+      <c r="E9" s="25" t="e">
         <f t="shared" si="0"/>
-        <v>-2.2425393605627064E-2</v>
-      </c>
-      <c r="F9" s="25">
+        <v>#NUM!</v>
+      </c>
+      <c r="F9" s="25" t="e">
         <f t="shared" si="0"/>
-        <v>-2.2425393605627064E-2</v>
-      </c>
-      <c r="G9" s="25">
+        <v>#NUM!</v>
+      </c>
+      <c r="G9" s="25" t="e">
         <f t="shared" si="0"/>
-        <v>-2.2425393605627064E-2</v>
-      </c>
-      <c r="H9" s="25">
+        <v>#NUM!</v>
+      </c>
+      <c r="H9" s="25" t="e">
         <f t="shared" si="0"/>
-        <v>-2.2425393605627064E-2</v>
-      </c>
-      <c r="I9" s="25">
+        <v>#NUM!</v>
+      </c>
+      <c r="I9" s="25" t="e">
         <f t="shared" si="0"/>
-        <v>-2.2425393605627064E-2</v>
-      </c>
-      <c r="J9" s="25">
+        <v>#NUM!</v>
+      </c>
+      <c r="J9" s="25" t="e">
         <f t="shared" si="0"/>
-        <v>-2.2425393605627064E-2</v>
-      </c>
-      <c r="K9" s="25">
+        <v>#NUM!</v>
+      </c>
+      <c r="K9" s="25" t="e">
         <f t="shared" si="0"/>
-        <v>-2.2425393605627064E-2</v>
-      </c>
-      <c r="L9" s="25">
+        <v>#NUM!</v>
+      </c>
+      <c r="L9" s="25" t="e">
         <f t="shared" si="0"/>
-        <v>-2.2425393605627064E-2</v>
-      </c>
-      <c r="M9" s="25">
+        <v>#NUM!</v>
+      </c>
+      <c r="M9" s="25" t="e">
         <f t="shared" si="0"/>
-        <v>-2.2425393605627064E-2</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1321,7 +1480,7 @@
         <v>29</v>
       </c>
       <c r="B11" s="29">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">

--- a/Test/Present Value.xlsx
+++ b/Test/Present Value.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Simple cash flow" sheetId="1" r:id="rId1"/>
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,10 +754,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="5">
-        <v>0</v>
+        <v>-7000</v>
       </c>
       <c r="C2" s="5">
-        <v>110</v>
+        <v>9000</v>
       </c>
       <c r="D2" s="5">
         <v>110</v>
@@ -783,15 +783,15 @@
       </c>
       <c r="C3" s="9">
         <f>NPV($B$8,$C$2:C2) + $B$3</f>
-        <v>100.91743119266054</v>
+        <v>8256.880733944954</v>
       </c>
       <c r="D3" s="9">
         <f>NPV($B$8,$C$2:D2) + $B$3</f>
-        <v>193.50223045198214</v>
+        <v>8349.4655332042748</v>
       </c>
       <c r="E3" s="9">
         <f>NPV($B$8,$C$2:E2) + $B$3</f>
-        <v>278.44241325869922</v>
+        <v>8434.4057160109915</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -805,9 +805,9 @@
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="10" t="e">
+      <c r="C4" s="10">
         <f>IRR(B2:C2)</f>
-        <v>#NUM!</v>
+        <v>0.28571428571428559</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -823,9 +823,9 @@
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="10" t="e">
+      <c r="C5" s="10">
         <f>C4-$B$8</f>
-        <v>#NUM!</v>
+        <v>0.19571428571428559</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -873,7 +873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
